--- a/Gestion Stock 2024/Gestion de Stock Berrouaghia/Suivie pose Compteur 2024.xlsx
+++ b/Gestion Stock 2024/Gestion de Stock Berrouaghia/Suivie pose Compteur 2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="7755" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="7755" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier 2024" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5088" uniqueCount="2645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5088" uniqueCount="2647">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -7620,9 +7620,6 @@
     <t>B20851</t>
   </si>
   <si>
-    <t>B20883</t>
-  </si>
-  <si>
     <t>B20890</t>
   </si>
   <si>
@@ -8215,13 +8212,22 @@
   </si>
   <si>
     <t>NB(432/2024)</t>
+  </si>
+  <si>
+    <t>NB(261/2024)</t>
+  </si>
+  <si>
+    <t>BC0788</t>
+  </si>
+  <si>
+    <t>B20888</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8305,6 +8311,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -8373,7 +8385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8474,6 +8486,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15797,8 +15818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1048575"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16779,7 +16800,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>120</v>
+        <v>2645</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>18</v>
@@ -20422,8 +20443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1048575"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B274" sqref="B274"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25058,7 +25079,7 @@
         <v>179</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="C185" s="14" t="s">
         <v>18</v>
@@ -25178,13 +25199,13 @@
         <v>184</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C190" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E190" s="16">
         <v>45645</v>
@@ -25208,7 +25229,7 @@
         <v>18</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E191" s="16">
         <v>45645</v>
@@ -25226,13 +25247,13 @@
         <v>186</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E192" s="16">
         <v>45645</v>
@@ -25250,13 +25271,13 @@
         <v>187</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E193" s="16">
         <v>45645</v>
@@ -25274,13 +25295,13 @@
         <v>188</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C194" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E194" s="16">
         <v>45645</v>
@@ -25298,13 +25319,13 @@
         <v>189</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C195" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E195" s="16">
         <v>45645</v>
@@ -25322,13 +25343,13 @@
         <v>190</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E196" s="16">
         <v>45645</v>
@@ -25346,13 +25367,13 @@
         <v>191</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C197" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="E197" s="16">
         <v>45645</v>
@@ -25370,13 +25391,13 @@
         <v>192</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E198" s="16">
         <v>45645</v>
@@ -25394,13 +25415,13 @@
         <v>193</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C199" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E199" s="16">
         <v>45645</v>
@@ -25418,13 +25439,13 @@
         <v>194</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="E200" s="16">
         <v>45645</v>
@@ -25441,19 +25462,19 @@
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="B201" s="16" t="s">
-        <v>2446</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>2481</v>
-      </c>
-      <c r="E201" s="16">
+      <c r="B201" s="37" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C201" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E201" s="37">
         <v>45645</v>
       </c>
-      <c r="F201" s="17" t="s">
+      <c r="F201" s="39" t="s">
         <v>20</v>
       </c>
       <c r="G201" s="18">
@@ -25466,13 +25487,13 @@
         <v>196</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="C202" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E202" s="16">
         <v>45645</v>
@@ -25490,13 +25511,13 @@
         <v>197</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="C203" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="E203" s="16">
         <v>45645</v>
@@ -25514,13 +25535,13 @@
         <v>198</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C204" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="E204" s="16">
         <v>45645</v>
@@ -25538,13 +25559,13 @@
         <v>199</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="E205" s="16">
         <v>45645</v>
@@ -25562,13 +25583,13 @@
         <v>200</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="C206" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="E206" s="16">
         <v>45645</v>
@@ -25586,13 +25607,13 @@
         <v>201</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C207" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="E207" s="16">
         <v>45645</v>
@@ -25610,13 +25631,13 @@
         <v>202</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C208" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E208" s="16">
         <v>45645</v>
@@ -25634,13 +25655,13 @@
         <v>203</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C209" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E209" s="16">
         <v>45645</v>
@@ -25658,13 +25679,13 @@
         <v>204</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="C210" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E210" s="16">
         <v>45645</v>
@@ -25683,13 +25704,13 @@
         <v>205</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="C211" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E211" s="16">
         <v>45645</v>
@@ -25707,13 +25728,13 @@
         <v>206</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="C212" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E212" s="16">
         <v>45645</v>
@@ -25731,13 +25752,13 @@
         <v>207</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C213" s="14">
         <v>65</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="E213" s="16">
         <v>45648</v>
@@ -25755,13 +25776,13 @@
         <v>208</v>
       </c>
       <c r="B214" s="16" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="15" t="s">
         <v>2512</v>
-      </c>
-      <c r="C214" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D214" s="15" t="s">
-        <v>2513</v>
       </c>
       <c r="E214" s="16">
         <v>45648</v>
@@ -25779,13 +25800,13 @@
         <v>209</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="C215" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="E215" s="16">
         <v>45648</v>
@@ -25803,13 +25824,13 @@
         <v>210</v>
       </c>
       <c r="B216" s="16" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" s="15" t="s">
         <v>2496</v>
-      </c>
-      <c r="C216" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216" s="15" t="s">
-        <v>2497</v>
       </c>
       <c r="E216" s="16">
         <v>45648</v>
@@ -25827,13 +25848,13 @@
         <v>211</v>
       </c>
       <c r="B217" s="16" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" s="15" t="s">
         <v>2510</v>
-      </c>
-      <c r="C217" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D217" s="15" t="s">
-        <v>2511</v>
       </c>
       <c r="E217" s="16">
         <v>45648</v>
@@ -25851,13 +25872,13 @@
         <v>212</v>
       </c>
       <c r="B218" s="16" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" s="15" t="s">
         <v>2508</v>
-      </c>
-      <c r="C218" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218" s="15" t="s">
-        <v>2509</v>
       </c>
       <c r="E218" s="16">
         <v>45648</v>
@@ -25875,13 +25896,13 @@
         <v>213</v>
       </c>
       <c r="B219" s="16" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" s="15" t="s">
         <v>2494</v>
-      </c>
-      <c r="C219" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D219" s="15" t="s">
-        <v>2495</v>
       </c>
       <c r="E219" s="16">
         <v>45648</v>
@@ -25899,13 +25920,13 @@
         <v>214</v>
       </c>
       <c r="B220" s="16" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="15" t="s">
         <v>2500</v>
-      </c>
-      <c r="C220" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D220" s="15" t="s">
-        <v>2501</v>
       </c>
       <c r="E220" s="16">
         <v>45648</v>
@@ -25923,13 +25944,13 @@
         <v>215</v>
       </c>
       <c r="B221" s="16" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" s="15" t="s">
         <v>2506</v>
-      </c>
-      <c r="C221" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D221" s="15" t="s">
-        <v>2507</v>
       </c>
       <c r="E221" s="16">
         <v>45648</v>
@@ -25947,13 +25968,13 @@
         <v>216</v>
       </c>
       <c r="B222" s="16" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" s="15" t="s">
         <v>2504</v>
-      </c>
-      <c r="C222" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D222" s="15" t="s">
-        <v>2505</v>
       </c>
       <c r="E222" s="16">
         <v>45648</v>
@@ -25971,13 +25992,13 @@
         <v>217</v>
       </c>
       <c r="B223" s="16" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D223" s="15" t="s">
         <v>2498</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D223" s="15" t="s">
-        <v>2499</v>
       </c>
       <c r="E223" s="16">
         <v>45648</v>
@@ -25995,13 +26016,13 @@
         <v>218</v>
       </c>
       <c r="B224" s="16" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" s="15" t="s">
         <v>2502</v>
-      </c>
-      <c r="C224" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D224" s="15" t="s">
-        <v>2503</v>
       </c>
       <c r="E224" s="16">
         <v>45648</v>
@@ -26025,19 +26046,19 @@
         <v>18</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="E225" s="16">
         <v>45649</v>
       </c>
       <c r="F225" s="17" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G225" s="18">
+        <v>1</v>
+      </c>
+      <c r="H225" t="s">
         <v>2538</v>
-      </c>
-      <c r="G225" s="18">
-        <v>1</v>
-      </c>
-      <c r="H225" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -26052,19 +26073,19 @@
         <v>18</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="E226" s="16">
         <v>45649</v>
       </c>
       <c r="F226" s="17" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G226" s="18">
+        <v>1</v>
+      </c>
+      <c r="H226" t="s">
         <v>2540</v>
-      </c>
-      <c r="G226" s="18">
-        <v>1</v>
-      </c>
-      <c r="H226" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -26073,13 +26094,13 @@
         <v>221</v>
       </c>
       <c r="B227" s="16" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D227" s="15" t="s">
         <v>2530</v>
-      </c>
-      <c r="C227" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D227" s="15" t="s">
-        <v>2531</v>
       </c>
       <c r="E227" s="16">
         <v>45649</v>
@@ -26097,13 +26118,13 @@
         <v>222</v>
       </c>
       <c r="B228" s="16" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="15" t="s">
         <v>2528</v>
-      </c>
-      <c r="C228" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" s="15" t="s">
-        <v>2529</v>
       </c>
       <c r="E228" s="16">
         <v>45649</v>
@@ -26121,13 +26142,13 @@
         <v>223</v>
       </c>
       <c r="B229" s="16" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="15" t="s">
         <v>2514</v>
-      </c>
-      <c r="C229" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229" s="15" t="s">
-        <v>2515</v>
       </c>
       <c r="E229" s="16">
         <v>45649</v>
@@ -26145,13 +26166,13 @@
         <v>224</v>
       </c>
       <c r="B230" s="16" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="15" t="s">
         <v>2532</v>
-      </c>
-      <c r="C230" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="15" t="s">
-        <v>2533</v>
       </c>
       <c r="E230" s="16">
         <v>45649</v>
@@ -26169,13 +26190,13 @@
         <v>225</v>
       </c>
       <c r="B231" s="16" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="15" t="s">
         <v>2520</v>
-      </c>
-      <c r="C231" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" s="15" t="s">
-        <v>2521</v>
       </c>
       <c r="E231" s="16">
         <v>45649</v>
@@ -26193,13 +26214,13 @@
         <v>226</v>
       </c>
       <c r="B232" s="16" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="15" t="s">
         <v>2522</v>
-      </c>
-      <c r="C232" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D232" s="15" t="s">
-        <v>2523</v>
       </c>
       <c r="E232" s="16">
         <v>45649</v>
@@ -26217,13 +26238,13 @@
         <v>227</v>
       </c>
       <c r="B233" s="16" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="15" t="s">
         <v>2518</v>
-      </c>
-      <c r="C233" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D233" s="15" t="s">
-        <v>2519</v>
       </c>
       <c r="E233" s="16">
         <v>45649</v>
@@ -26241,13 +26262,13 @@
         <v>228</v>
       </c>
       <c r="B234" s="16" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="15" t="s">
         <v>2516</v>
-      </c>
-      <c r="C234" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="15" t="s">
-        <v>2517</v>
       </c>
       <c r="E234" s="16">
         <v>45649</v>
@@ -26265,13 +26286,13 @@
         <v>229</v>
       </c>
       <c r="B235" s="16" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="15" t="s">
         <v>2526</v>
-      </c>
-      <c r="C235" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D235" s="15" t="s">
-        <v>2527</v>
       </c>
       <c r="E235" s="16">
         <v>45649</v>
@@ -26289,13 +26310,13 @@
         <v>230</v>
       </c>
       <c r="B236" s="16" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="15" t="s">
         <v>2524</v>
-      </c>
-      <c r="C236" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D236" s="15" t="s">
-        <v>2525</v>
       </c>
       <c r="E236" s="16">
         <v>45649</v>
@@ -26313,13 +26334,13 @@
         <v>231</v>
       </c>
       <c r="B237" s="16" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237" s="15" t="s">
         <v>2553</v>
-      </c>
-      <c r="C237" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D237" s="15" t="s">
-        <v>2554</v>
       </c>
       <c r="E237" s="16">
         <v>45650</v>
@@ -26337,13 +26358,13 @@
         <v>232</v>
       </c>
       <c r="B238" s="16" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D238" s="15" t="s">
         <v>2565</v>
-      </c>
-      <c r="C238" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D238" s="15" t="s">
-        <v>2566</v>
       </c>
       <c r="E238" s="16">
         <v>45650</v>
@@ -26361,13 +26382,13 @@
         <v>233</v>
       </c>
       <c r="B239" s="16" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" s="15" t="s">
         <v>2555</v>
-      </c>
-      <c r="C239" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D239" s="15" t="s">
-        <v>2556</v>
       </c>
       <c r="E239" s="16">
         <v>45650</v>
@@ -26385,13 +26406,13 @@
         <v>234</v>
       </c>
       <c r="B240" s="16" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="15" t="s">
         <v>2559</v>
-      </c>
-      <c r="C240" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D240" s="15" t="s">
-        <v>2560</v>
       </c>
       <c r="E240" s="16">
         <v>45650</v>
@@ -26409,13 +26430,13 @@
         <v>235</v>
       </c>
       <c r="B241" s="16" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="15" t="s">
         <v>2563</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D241" s="15" t="s">
-        <v>2564</v>
       </c>
       <c r="E241" s="16">
         <v>45650</v>
@@ -26433,13 +26454,13 @@
         <v>236</v>
       </c>
       <c r="B242" s="16" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D242" s="15" t="s">
         <v>2557</v>
-      </c>
-      <c r="C242" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D242" s="15" t="s">
-        <v>2558</v>
       </c>
       <c r="E242" s="16">
         <v>45650</v>
@@ -26457,13 +26478,13 @@
         <v>237</v>
       </c>
       <c r="B243" s="16" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D243" s="15" t="s">
         <v>2561</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D243" s="15" t="s">
-        <v>2562</v>
       </c>
       <c r="E243" s="16">
         <v>45650</v>
@@ -26487,19 +26508,19 @@
         <v>18</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="E244" s="16">
         <v>45650</v>
       </c>
       <c r="F244" s="17" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="G244" s="18">
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -26508,13 +26529,13 @@
         <v>239</v>
       </c>
       <c r="B245" s="16" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="15" t="s">
         <v>2567</v>
-      </c>
-      <c r="C245" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D245" s="15" t="s">
-        <v>2568</v>
       </c>
       <c r="E245" s="16">
         <v>45650</v>
@@ -26532,13 +26553,13 @@
         <v>240</v>
       </c>
       <c r="B246" s="16" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D246" s="15" t="s">
         <v>2544</v>
-      </c>
-      <c r="C246" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D246" s="15" t="s">
-        <v>2545</v>
       </c>
       <c r="E246" s="16">
         <v>45650</v>
@@ -26556,13 +26577,13 @@
         <v>241</v>
       </c>
       <c r="B247" s="16" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="15" t="s">
         <v>2551</v>
-      </c>
-      <c r="C247" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D247" s="15" t="s">
-        <v>2552</v>
       </c>
       <c r="E247" s="16">
         <v>45650</v>
@@ -26580,13 +26601,13 @@
         <v>242</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C248" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="E248" s="16">
         <v>45650</v>
@@ -26604,13 +26625,13 @@
         <v>243</v>
       </c>
       <c r="B249" s="16" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="15" t="s">
         <v>2547</v>
-      </c>
-      <c r="C249" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D249" s="15" t="s">
-        <v>2548</v>
       </c>
       <c r="E249" s="16">
         <v>45650</v>
@@ -26628,13 +26649,13 @@
         <v>244</v>
       </c>
       <c r="B250" s="16" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D250" s="15" t="s">
         <v>2549</v>
-      </c>
-      <c r="C250" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D250" s="15" t="s">
-        <v>2550</v>
       </c>
       <c r="E250" s="16">
         <v>45650</v>
@@ -26652,13 +26673,13 @@
         <v>245</v>
       </c>
       <c r="B251" s="16" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D251" s="15" t="s">
         <v>2584</v>
-      </c>
-      <c r="C251" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D251" s="15" t="s">
-        <v>2585</v>
       </c>
       <c r="E251" s="16">
         <v>45651</v>
@@ -26676,13 +26697,13 @@
         <v>246</v>
       </c>
       <c r="B252" s="16" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D252" s="15" t="s">
         <v>2570</v>
-      </c>
-      <c r="C252" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D252" s="15" t="s">
-        <v>2571</v>
       </c>
       <c r="E252" s="16">
         <v>45651</v>
@@ -26700,13 +26721,13 @@
         <v>247</v>
       </c>
       <c r="B253" s="16" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C253" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="15" t="s">
         <v>2574</v>
-      </c>
-      <c r="C253" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D253" s="15" t="s">
-        <v>2575</v>
       </c>
       <c r="E253" s="16">
         <v>45651</v>
@@ -26724,13 +26745,13 @@
         <v>248</v>
       </c>
       <c r="B254" s="16" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C254" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D254" s="15" t="s">
         <v>2572</v>
-      </c>
-      <c r="C254" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D254" s="15" t="s">
-        <v>2573</v>
       </c>
       <c r="E254" s="16">
         <v>45651</v>
@@ -26748,13 +26769,13 @@
         <v>249</v>
       </c>
       <c r="B255" s="16" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C255" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D255" s="15" t="s">
         <v>2576</v>
-      </c>
-      <c r="C255" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D255" s="15" t="s">
-        <v>2577</v>
       </c>
       <c r="E255" s="16">
         <v>45651</v>
@@ -26772,13 +26793,13 @@
         <v>250</v>
       </c>
       <c r="B256" s="16" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>2580</v>
-      </c>
-      <c r="C256" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>2581</v>
       </c>
       <c r="E256" s="16">
         <v>45651</v>
@@ -26796,13 +26817,13 @@
         <v>251</v>
       </c>
       <c r="B257" s="16" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C257" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>2578</v>
-      </c>
-      <c r="C257" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D257" s="15" t="s">
-        <v>2579</v>
       </c>
       <c r="E257" s="16">
         <v>45651</v>
@@ -26820,13 +26841,13 @@
         <v>252</v>
       </c>
       <c r="B258" s="16" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>2582</v>
-      </c>
-      <c r="C258" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>2583</v>
       </c>
       <c r="E258" s="16">
         <v>45651</v>
@@ -26844,13 +26865,13 @@
         <v>253</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C259" s="14" t="s">
         <v>380</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="E259" s="16">
         <v>45655</v>
@@ -26868,13 +26889,13 @@
         <v>254</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="C260" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="E260" s="16">
         <v>45655</v>
@@ -26892,13 +26913,13 @@
         <v>255</v>
       </c>
       <c r="B261" s="16" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" s="15" t="s">
         <v>2588</v>
-      </c>
-      <c r="C261" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>2589</v>
       </c>
       <c r="E261" s="16">
         <v>45655</v>
@@ -26916,13 +26937,13 @@
         <v>256</v>
       </c>
       <c r="B262" s="16" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D262" s="15" t="s">
         <v>2586</v>
-      </c>
-      <c r="C262" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D262" s="15" t="s">
-        <v>2587</v>
       </c>
       <c r="E262" s="16">
         <v>45655</v>
@@ -26940,13 +26961,13 @@
         <v>257</v>
       </c>
       <c r="B263" s="16" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>2623</v>
-      </c>
-      <c r="C263" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>2624</v>
       </c>
       <c r="E263" s="16">
         <v>45655</v>
@@ -26964,13 +26985,13 @@
         <v>258</v>
       </c>
       <c r="B264" s="16" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" s="15" t="s">
         <v>2590</v>
-      </c>
-      <c r="C264" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>2591</v>
       </c>
       <c r="E264" s="16">
         <v>45655</v>
@@ -26988,13 +27009,13 @@
         <v>259</v>
       </c>
       <c r="B265" s="16" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>2604</v>
-      </c>
-      <c r="C265" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>2605</v>
       </c>
       <c r="E265" s="16">
         <v>45656</v>
@@ -27012,13 +27033,13 @@
         <v>260</v>
       </c>
       <c r="B266" s="16" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D266" s="15" t="s">
         <v>2610</v>
-      </c>
-      <c r="C266" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D266" s="15" t="s">
-        <v>2611</v>
       </c>
       <c r="E266" s="16">
         <v>45656</v>
@@ -27036,13 +27057,13 @@
         <v>261</v>
       </c>
       <c r="B267" s="16" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D267" s="15" t="s">
         <v>2608</v>
-      </c>
-      <c r="C267" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D267" s="15" t="s">
-        <v>2609</v>
       </c>
       <c r="E267" s="16">
         <v>45656</v>
@@ -27060,13 +27081,13 @@
         <v>262</v>
       </c>
       <c r="B268" s="16" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D268" s="15" t="s">
         <v>2606</v>
-      </c>
-      <c r="C268" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D268" s="15" t="s">
-        <v>2607</v>
       </c>
       <c r="E268" s="16">
         <v>45656</v>
@@ -27084,13 +27105,13 @@
         <v>263</v>
       </c>
       <c r="B269" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D269" s="15" t="s">
         <v>2596</v>
-      </c>
-      <c r="C269" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D269" s="15" t="s">
-        <v>2597</v>
       </c>
       <c r="E269" s="16">
         <v>45656</v>
@@ -27108,13 +27129,13 @@
         <v>264</v>
       </c>
       <c r="B270" s="16" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D270" s="15" t="s">
         <v>2600</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D270" s="15" t="s">
-        <v>2601</v>
       </c>
       <c r="E270" s="16">
         <v>45656</v>
@@ -27132,13 +27153,13 @@
         <v>265</v>
       </c>
       <c r="B271" s="16" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271" s="15" t="s">
         <v>2602</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D271" s="15" t="s">
-        <v>2603</v>
       </c>
       <c r="E271" s="16">
         <v>45656</v>
@@ -27156,13 +27177,13 @@
         <v>266</v>
       </c>
       <c r="B272" s="16" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D272" s="15" t="s">
         <v>2598</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D272" s="15" t="s">
-        <v>2599</v>
       </c>
       <c r="E272" s="16">
         <v>45656</v>
@@ -27180,25 +27201,25 @@
         <v>267</v>
       </c>
       <c r="B273" s="16" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C273" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D273" s="15" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="E273" s="16">
         <v>45656</v>
       </c>
       <c r="F273" s="17" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G273" s="18">
+        <v>1</v>
+      </c>
+      <c r="H273" t="s">
         <v>2621</v>
-      </c>
-      <c r="G273" s="18">
-        <v>1</v>
-      </c>
-      <c r="H273" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -27207,13 +27228,13 @@
         <v>268</v>
       </c>
       <c r="B274" s="16" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C274" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D274" s="15" t="s">
         <v>2614</v>
-      </c>
-      <c r="C274" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D274" s="15" t="s">
-        <v>2615</v>
       </c>
       <c r="E274" s="16">
         <v>45656</v>
@@ -27231,13 +27252,13 @@
         <v>269</v>
       </c>
       <c r="B275" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C275" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D275" s="15" t="s">
         <v>2616</v>
-      </c>
-      <c r="C275" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D275" s="15" t="s">
-        <v>2617</v>
       </c>
       <c r="E275" s="16">
         <v>45656</v>
@@ -27255,13 +27276,13 @@
         <v>270</v>
       </c>
       <c r="B276" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D276" s="15" t="s">
         <v>2618</v>
-      </c>
-      <c r="C276" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D276" s="15" t="s">
-        <v>2619</v>
       </c>
       <c r="E276" s="16">
         <v>45656</v>
@@ -27279,13 +27300,13 @@
         <v>271</v>
       </c>
       <c r="B277" s="16" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C277" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="15" t="s">
         <v>2612</v>
-      </c>
-      <c r="C277" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D277" s="15" t="s">
-        <v>2613</v>
       </c>
       <c r="E277" s="16">
         <v>45656</v>
@@ -27303,13 +27324,13 @@
         <v>272</v>
       </c>
       <c r="B278" s="16" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C278" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D278" s="15" t="s">
         <v>2628</v>
-      </c>
-      <c r="C278" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D278" s="15" t="s">
-        <v>2629</v>
       </c>
       <c r="E278" s="16">
         <v>45657</v>
@@ -27333,19 +27354,19 @@
         <v>18</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="E279" s="16">
         <v>45657</v>
       </c>
       <c r="F279" s="17" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G279" s="18">
+        <v>1</v>
+      </c>
+      <c r="H279" t="s">
         <v>2634</v>
-      </c>
-      <c r="G279" s="18">
-        <v>1</v>
-      </c>
-      <c r="H279" t="s">
-        <v>2635</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -27360,19 +27381,19 @@
         <v>18</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="E280" s="16">
         <v>45657</v>
       </c>
       <c r="F280" s="17" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G280" s="18">
+        <v>1</v>
+      </c>
+      <c r="H280" t="s">
         <v>2626</v>
-      </c>
-      <c r="G280" s="18">
-        <v>1</v>
-      </c>
-      <c r="H280" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -27387,19 +27408,19 @@
         <v>18</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="E281" s="16">
         <v>45657</v>
       </c>
       <c r="F281" s="17" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G281" s="18">
+        <v>1</v>
+      </c>
+      <c r="H281" t="s">
         <v>2631</v>
-      </c>
-      <c r="G281" s="18">
-        <v>1</v>
-      </c>
-      <c r="H281" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -27414,7 +27435,7 @@
         <v>18</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="E282" s="16">
         <v>45657</v>
@@ -27426,7 +27447,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1048575" spans="6:9" x14ac:dyDescent="0.25">
@@ -36752,7 +36773,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37267,7 +37288,7 @@
         <v>45452</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>165</v>
+        <v>2644</v>
       </c>
       <c r="G19" s="18">
         <v>1</v>
@@ -40469,7 +40490,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>18</v>
@@ -42832,7 +42853,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>18</v>
@@ -44519,7 +44540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -45197,7 +45218,7 @@
         <v>45540</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="G25" s="18">
         <v>1</v>
@@ -45226,7 +45247,7 @@
         <v>45540</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="G26" s="18">
         <v>1</v>
@@ -45411,7 +45432,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>18</v>
@@ -46135,7 +46156,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>18</v>
